--- a/biology/Médecine/Valentin_Agon/Valentin_Agon.xlsx
+++ b/biology/Médecine/Valentin_Agon/Valentin_Agon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Valentin Agon, de son nom civil Agon Achidi Valentin, né le 1er janvier 1970 à Vêhou  dans le département du Zou au Bénin, est un chercheur, inventeur, industriel et entrepreneur béninois, propriétaire et directeur général d’Api-Bénin, entreprise d'industrie pharmaceutique qui produit des médicaments en Phytothérapie au Bénin, ainsi que d'Api-Pharma, institut universitaire de recherche et de développement en santé et en industrie. 
 </t>
@@ -513,10 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Carrière
-Mise au point de médicaments
-Au début des années 2000 Valentin Agon invente avec Célestin Kinnoudo l’Apivirine, un antirétroviral contre le VIH[1], médicament qui est breveté dans plusieurs pays dont l'Europe[2] et l'Afrique du sud[3]. 
-En 2020, ce médicament est annoncé efficace contre la Pandémie de maladie à coronavirus de 2020 au Burkina Faso par le ministre de l’Enseignement supérieur, de la recherche scientifique et de l’innovation du Burkina Faso[4]. Des médecins burkinabé auraient en effet eu l'idée de le tester sur un malade du covid-19. L'Apivirine se serait révélée rapidement efficace. Des essais cliniques sont donc en cours pour huit semaines au Burkina Faso pour vérifier de façon scientifique l'efficacité de ce médicament contre la Covid-19[5],[6]. Mais d'autres sources indiquent qu'aucun essai n'est en cours et que le prix du médicament a soudainement augmenté[7].
+          <t>Mise au point de médicaments</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au début des années 2000 Valentin Agon invente avec Célestin Kinnoudo l’Apivirine, un antirétroviral contre le VIH, médicament qui est breveté dans plusieurs pays dont l'Europe et l'Afrique du sud. 
+En 2020, ce médicament est annoncé efficace contre la Pandémie de maladie à coronavirus de 2020 au Burkina Faso par le ministre de l’Enseignement supérieur, de la recherche scientifique et de l’innovation du Burkina Faso. Des médecins burkinabé auraient en effet eu l'idée de le tester sur un malade du covid-19. L'Apivirine se serait révélée rapidement efficace. Des essais cliniques sont donc en cours pour huit semaines au Burkina Faso pour vérifier de façon scientifique l'efficacité de ce médicament contre la Covid-19,. Mais d'autres sources indiquent qu'aucun essai n'est en cours et que le prix du médicament a soudainement augmenté.
 </t>
         </is>
       </c>
